--- a/Datos_update_2Julio.xlsx
+++ b/Datos_update_2Julio.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="198">
   <si>
     <t>Nombre</t>
   </si>
@@ -606,6 +606,9 @@
   </si>
   <si>
     <t>14</t>
+  </si>
+  <si>
+    <t>Peso</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -640,11 +643,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -652,6 +657,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R81"/>
+  <dimension ref="A1:S81"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.7109375" customWidth="true"/>
@@ -671,77 +678,81 @@
     <col min="5" max="5" width="8.7109375" customWidth="true"/>
     <col min="6" max="6" width="4.7109375" customWidth="true"/>
     <col min="7" max="7" width="4.7109375" customWidth="true"/>
-    <col min="8" max="8" width="7.7109375" customWidth="true"/>
+    <col min="8" max="8" width="4.7109375" customWidth="true"/>
     <col min="9" max="9" width="7.7109375" customWidth="true"/>
-    <col min="10" max="10" width="8.7109375" customWidth="true"/>
-    <col min="11" max="11" width="12.7109375" customWidth="true"/>
-    <col min="12" max="12" width="13.7109375" customWidth="true"/>
+    <col min="10" max="10" width="7.7109375" customWidth="true"/>
+    <col min="11" max="11" width="8.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
     <col min="13" max="13" width="13.7109375" customWidth="true"/>
-    <col min="14" max="14" width="11.7109375" customWidth="true"/>
-    <col min="15" max="15" width="14.7109375" customWidth="true"/>
-    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="14" max="14" width="13.7109375" customWidth="true"/>
+    <col min="15" max="15" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="14.7109375" customWidth="true"/>
     <col min="17" max="17" width="11.7109375" customWidth="true"/>
     <col min="18" max="18" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -753,18 +764,18 @@
       <c r="D2">
         <v>751.23747861385152</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="3">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="5">
+        <v>77</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
       <c r="I2">
         <v>1</v>
       </c>
@@ -772,32 +783,35 @@
         <v>1</v>
       </c>
       <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>-54.782407031807281</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>-6.0349721016883811</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>8.4299847260881791</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>28.170655783065854</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>29270.833541721033</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>40.511225991909413</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>56.94999837875352</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>49.428888402219542</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -809,18 +823,18 @@
       <c r="D3">
         <v>365.33203125</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="3">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="5">
+        <v>40</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
       <c r="I3">
         <v>1</v>
       </c>
@@ -828,32 +842,35 @@
         <v>1</v>
       </c>
       <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>-28.300755766006379</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-3.210341759571508</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>13.51977238500298</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>27.953877379619261</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>26364.84375</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>42.318308998142527</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>54</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>37.905542319565257</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -865,18 +882,18 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="3">
-        <v>17</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="5">
+        <v>70</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
@@ -884,29 +901,32 @@
         <v>0</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>-12.094757077012103</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>-0.8906072349310683</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>9.411504207636824</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>66.5</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>46.956103080735943</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -918,18 +938,18 @@
       <c r="D5">
         <v>597.119140625</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="3">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="5">
+        <v>50</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
       <c r="I5">
         <v>1</v>
       </c>
@@ -937,32 +957,35 @@
         <v>1</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>-6.3401917459099089</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-0.56839186467939451</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.50160588058554367</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>27.774236641221375</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>30056.591796875</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>40.834455537497099</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>56</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>48.436385179046702</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -974,18 +997,18 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="3">
-        <v>17</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="5">
+        <v>66</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
         <v>0</v>
       </c>
@@ -993,29 +1016,32 @@
         <v>0</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>42.510447078000851</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2.6130368863767628</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>10.455344904279841</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>66.600000000000009</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>46.473552906497453</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1027,51 +1053,54 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="3">
-        <v>13</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="5">
+        <v>55</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>-11.309932474020213</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-0.75384833307076693</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>7.2030635783039543</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>31.312056367432149</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>37450.424999999996</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>35.986334476691248</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>60.799999999999997</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>45.745878209290765</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1083,18 +1112,18 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="3">
-        <v>17</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="5">
+        <v>80</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
         <v>0</v>
       </c>
@@ -1102,29 +1131,32 @@
         <v>0</v>
       </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>-56.309932474020215</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-7.084945874089783</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>3.0423451479438626</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>75.899999999999991</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>58.446622551817988</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1136,18 +1168,18 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="3">
-        <v>17</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="5">
+        <v>80</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
@@ -1155,29 +1187,32 @@
         <v>0</v>
       </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>5.1944289077348058</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.2906619696409487</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>5.9384656563712781</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>68</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>58.401280625175353</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1189,18 +1224,18 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="3">
-        <v>16</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="5">
+        <v>70</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
@@ -1208,29 +1243,32 @@
         <v>0</v>
       </c>
       <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>-34.69515353123397</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-3.6841171609400418</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>6.7012250483956848</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>72</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>56.940108997760575</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -1242,18 +1280,18 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="3">
-        <v>17</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="5">
+        <v>80</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
         <v>0</v>
       </c>
@@ -1261,29 +1299,32 @@
         <v>0</v>
       </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>-10.304846468766033</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-0.59387693721958901</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>5.4272289208667104</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>70.299999999999997</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>52.345617353654369</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1295,18 +1336,18 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="3">
-        <v>19</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" s="5">
+        <v>85</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="I12">
         <v>0</v>
       </c>
@@ -1314,29 +1355,32 @@
         <v>0</v>
       </c>
       <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>37.568592028827496</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2.0395859761364394</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>5.0782117957858475</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>88</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>62.708626693520486</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -1348,18 +1392,18 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="3">
-        <v>16</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="5">
+        <v>75</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
         <v>0</v>
       </c>
@@ -1367,29 +1411,32 @@
         <v>0</v>
       </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>-39.289406862500357</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-2.7508085918811056</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>10.640337468563047</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>76</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>62.150446655206693</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -1401,51 +1448,54 @@
       <c r="D14">
         <v>271.49206335245896</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="3">
-        <v>17</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="5">
+        <v>70</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>55.713123022791038</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>5.6594816773793006</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>8.8822018485326879</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>36.351901870912748</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>38632.126598049545</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>22.43060756665345</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>70</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>52.639229431971813</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -1457,51 +1507,54 @@
       <c r="D15">
         <v>507.525634765625</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="3">
-        <v>16</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="5">
+        <v>75</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>4.3987053549955322</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.30128212139291854</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>6.0773499275226612</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>36.548510322976291</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>16813.24462890625</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>9.5957587354040115</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>72</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>55.597069498178762</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -1513,18 +1566,18 @@
       <c r="D16">
         <v>316.55987548828125</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="3">
-        <v>13</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="5">
+        <v>50</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
       <c r="I16">
         <v>1</v>
       </c>
@@ -1532,32 +1585,35 @@
         <v>1</v>
       </c>
       <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>-42.510447078000851</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-3.6294124236769618</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>8.0407094276333169</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>33.904158209535325</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>49485.370574951172</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>41.651950331938302</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>66.5</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>50.115470642335893</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -1569,283 +1625,298 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="5">
+        <v>80</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>32.471192290848492</v>
+      </c>
+      <c r="M17">
+        <v>3.0201102281393712</v>
+      </c>
+      <c r="N17">
+        <v>8.0618719857693861</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>66.5</v>
+      </c>
+      <c r="S17">
+        <v>45.374294316414229</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="5">
+        <v>60</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>32.471192290848492</v>
-      </c>
-      <c r="L17">
-        <v>3.0201102281393712</v>
-      </c>
-      <c r="M17">
-        <v>8.0618719857693861</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>66.5</v>
-      </c>
-      <c r="R17">
-        <v>45.374294316414229</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>16</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>33.690067525979785</v>
+      </c>
+      <c r="M18">
+        <v>1.9349323095527695</v>
+      </c>
+      <c r="N18">
+        <v>7.2944874192965869</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>62.900000000000006</v>
+      </c>
+      <c r="S18">
+        <v>48.641513576902256</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" s="5">
+        <v>70</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>33.690067525979785</v>
-      </c>
-      <c r="L18">
-        <v>1.9349323095527695</v>
-      </c>
-      <c r="M18">
-        <v>7.2944874192965869</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>62.900000000000006</v>
-      </c>
-      <c r="R18">
-        <v>48.641513576902256</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="3">
-        <v>15</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>-28.300755766006379</v>
+      </c>
+      <c r="M19">
+        <v>-3.8506388239107534</v>
+      </c>
+      <c r="N19">
+        <v>8.7209865241216562</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>60</v>
+      </c>
+      <c r="S19">
+        <v>45.607530017078489</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="5">
+        <v>55</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>-28.300755766006379</v>
-      </c>
-      <c r="L19">
-        <v>-3.8506388239107534</v>
-      </c>
-      <c r="M19">
-        <v>8.7209865241216562</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>60</v>
-      </c>
-      <c r="R19">
-        <v>45.607530017078489</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="3">
-        <v>16</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>8.7461622625552096</v>
+      </c>
+      <c r="M20">
+        <v>0.48719728483434255</v>
+      </c>
+      <c r="N20">
+        <v>6.8945007446023538</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>63</v>
+      </c>
+      <c r="S20">
+        <v>45.967599711202382</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="5">
+        <v>75</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>8.7461622625552096</v>
-      </c>
-      <c r="L20">
-        <v>0.48719728483434255</v>
-      </c>
-      <c r="M20">
-        <v>6.8945007446023538</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>63</v>
-      </c>
-      <c r="R20">
-        <v>45.967599711202382</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="3">
-        <v>16</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>-30.256437163529274</v>
+      </c>
+      <c r="M21">
+        <v>-1.7009921407280455</v>
+      </c>
+      <c r="N21">
+        <v>10.447279191450122</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="S21">
+        <v>50.214601660352827</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" s="5">
+        <v>75</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>-30.256437163529274</v>
-      </c>
-      <c r="L21">
-        <v>-1.7009921407280455</v>
-      </c>
-      <c r="M21">
-        <v>10.447279191450122</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="R21">
-        <v>50.214601660352827</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="3">
-        <v>15</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
       <c r="I22">
         <v>0</v>
       </c>
@@ -1853,29 +1924,32 @@
         <v>0</v>
       </c>
       <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
         <v>21.037511025421818</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>1.5736640541025539</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>11.510684785359203</v>
       </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>56</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>52.697038151195549</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1887,18 +1961,18 @@
       <c r="D23">
         <v>330.86115391115806</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="3">
-        <v>13</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="F23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="5">
+        <v>60</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
       <c r="I23">
         <v>1</v>
       </c>
@@ -1906,32 +1980,35 @@
         <v>1</v>
       </c>
       <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
         <v>-4.7636416907261774</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-0.41198448506072793</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>3.9294759523429548</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>33.180438983447843</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>51742.541709371886</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>41.7477833135341</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>66.999998092651197</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>62.815857616486198</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1943,51 +2020,54 @@
       <c r="D24">
         <v>525.390625</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="3">
-        <v>17</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="F24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="5">
+        <v>66</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
         <v>30.256437163529274</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>2.6093303531402392</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>12.045040099904412</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>34.54262742718447</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>44517.96875</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>27.919088880233023</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>68</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>57.59748921447656</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -1999,18 +2079,18 @@
       <c r="D25">
         <v>374.47998046875</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="3">
-        <v>15</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="F25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="5">
+        <v>80</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
       <c r="I25">
         <v>1</v>
       </c>
@@ -2018,32 +2098,35 @@
         <v>1</v>
       </c>
       <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
         <v>21.037511025421818</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1.3589251227863932</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>5.9269303615936622</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>35.678973597303553</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>55864.522705078125</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>35.110410839573682</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>60.799999999999997</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>59.309066131522535</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -2055,18 +2138,18 @@
       <c r="D26">
         <v>811.78399495581937</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="3">
-        <v>15</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="F26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="5">
+        <v>75</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
       <c r="I26">
         <v>1</v>
       </c>
@@ -2074,32 +2157,35 @@
         <v>1</v>
       </c>
       <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
         <v>9.4623222080256166</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.52748728622824526</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>11.084948541450913</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>38.996237284604355</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>80950.610230073464</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>43.932575935518159</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>68.400000000000006</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>59.124011008535469</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -2111,18 +2197,18 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F27" s="3">
-        <v>16</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="F27" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G27" s="5">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
       <c r="I27">
         <v>0</v>
       </c>
@@ -2130,29 +2216,32 @@
         <v>0</v>
       </c>
       <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>15.255118703057775</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>1.4465556225508827</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>7.07298687429072</v>
       </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
         <v>52.5</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>43.441639205093701</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -2164,51 +2253,54 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="3">
-        <v>16</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="F28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" s="5">
+        <v>70</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>15.945395900922856</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1.3569713063360729</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>8.3355145705842233</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>32.44873189685908</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>53911.481746711368</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>36.04562033367948</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>70</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>50.473087477707189</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -2220,18 +2312,18 @@
       <c r="D29">
         <v>643.22967529296875</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="3">
-        <v>15</v>
-      </c>
-      <c r="G29" s="5" t="s">
+      <c r="F29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="5">
+        <v>75</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
       <c r="I29">
         <v>1</v>
       </c>
@@ -2239,32 +2331,35 @@
         <v>1</v>
       </c>
       <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
         <v>57.724355685422374</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>7.0515484878836316</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>11.185456722849992</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>36.865619821482369</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>66444.474029541016</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>38.370819033456797</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>77</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>59.652671462994519</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -2276,18 +2371,18 @@
       <c r="D30">
         <v>516.79310409651066</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F30" s="3">
-        <v>16</v>
-      </c>
-      <c r="G30" s="5" t="s">
+      <c r="F30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" s="5">
+        <v>75</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
       <c r="I30">
         <v>1</v>
       </c>
@@ -2295,32 +2390,35 @@
         <v>1</v>
       </c>
       <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
         <v>17.102728969052372</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.8974169197999603</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>11.06690762795813</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>34.608449770690591</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>58244.175589730105</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>40.772903480146304</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>76</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>52.761275705968565</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -2332,18 +2430,18 @@
       <c r="D31">
         <v>318.71875</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F31" s="3">
-        <v>11</v>
-      </c>
-      <c r="G31" s="5" t="s">
+      <c r="F31" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="5">
+        <v>66</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
       <c r="I31">
         <v>1</v>
       </c>
@@ -2351,32 +2449,35 @@
         <v>1</v>
       </c>
       <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
         <v>19.98310652189998</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>1.4878675288277792</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>3.135734352142677</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>27.046765319673689</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>31120.46875</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>38.08275869453486</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>56</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>43.115207354301084</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -2388,51 +2489,54 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="3">
-        <v>15</v>
-      </c>
-      <c r="G32" s="5" t="s">
+      <c r="F32" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" s="5">
+        <v>80</v>
+      </c>
+      <c r="H32" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>14.036243467926477</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>0.76967629439880569</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>6.8018434578703051</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>30.725174138349537</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>13383.523781554022</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>12.300626677051437</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>64.799999999999997</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>47.265944235154606</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -2444,51 +2548,54 @@
       <c r="D33">
         <v>437.24461523726978</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="3">
-        <v>15</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="F33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="5">
+        <v>70</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
         <v>-28.610459665965216</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>-2.7912383136077765</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>9.7072723623564059</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>31.96703891619908</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>41209.83903916549</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>33.694906782321404</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>61.200000000000003</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>47.245906073949357</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -2500,18 +2607,18 @@
       <c r="D34">
         <v>530.68516461507818</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F34" s="3">
-        <v>13</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="F34" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34" s="5">
+        <v>70</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
       <c r="I34">
         <v>1</v>
       </c>
@@ -2519,32 +2626,35 @@
         <v>1</v>
       </c>
       <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
         <v>-14.036243467926477</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>-1.2851890785853615</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>1.6250527649874726</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>32.389723637756461</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>45883.259601634949</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>38.76053134852949</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>66.600000858306785</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>51.085847949337634</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -2556,18 +2666,18 @@
       <c r="D35">
         <v>618.11914744251249</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F35" s="3">
-        <v>12</v>
-      </c>
-      <c r="G35" s="5" t="s">
+      <c r="F35" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="5">
+        <v>66</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
       <c r="I35">
         <v>1</v>
       </c>
@@ -2575,32 +2685,35 @@
         <v>1</v>
       </c>
       <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
         <v>21.037511025421818</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>1.6954370693034697</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>5.4140935880430021</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>35.75594481180061</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>55338.363601024968</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>37.572093543593262</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>66.999998092651197</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>54.1313863860914</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -2612,18 +2725,18 @@
       <c r="D36">
         <v>556.69363806380352</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F36" s="3">
-        <v>11</v>
-      </c>
-      <c r="G36" s="5" t="s">
+      <c r="F36" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G36" s="5">
+        <v>45</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
       <c r="I36">
         <v>1</v>
       </c>
@@ -2631,32 +2744,35 @@
         <v>1</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
         <v>12.039603445588853</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>29.683380524450385</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>43231.009886065622</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>35.054192121764814</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>68.400000000000006</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>41.737576027735656</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -2668,18 +2784,18 @@
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F37" s="3">
-        <v>16</v>
-      </c>
-      <c r="G37" s="5" t="s">
+      <c r="F37" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G37" s="5">
+        <v>65</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
       <c r="I37">
         <v>0</v>
       </c>
@@ -2687,29 +2803,32 @@
         <v>0</v>
       </c>
       <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
         <v>-65.695450734063286</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>-7.1708027428972443</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>17.079706449296197</v>
       </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
       <c r="P37">
         <v>0</v>
       </c>
       <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
         <v>70</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>55.253461034527803</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -2721,51 +2840,54 @@
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F38" s="3">
-        <v>14</v>
-      </c>
-      <c r="G38" s="5" t="s">
+      <c r="F38" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38" s="5">
+        <v>75</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>45</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>3.3214757633460423</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>1.7502110024842636</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>26.214949239847964</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>2622.9039306640625</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>2.8917876288233035</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>59.5</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>44.737044323304097</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -2777,18 +2899,18 @@
       <c r="D39">
         <v>788.0110995495653</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F39" s="3">
-        <v>15</v>
-      </c>
-      <c r="G39" s="5" t="s">
+      <c r="F39" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="5">
+        <v>70</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
       <c r="I39">
         <v>1</v>
       </c>
@@ -2796,32 +2918,35 @@
         <v>1</v>
       </c>
       <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
         <v>4.7636416907261774</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>0.43654507676437004</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>13.695744617185923</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>34.839419652876707</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>50571.506073799668</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>40.167797326028392</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>59.399999999999999</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>56.812083215233145</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -2833,18 +2958,18 @@
       <c r="D40">
         <v>508.54489274879529</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F40" s="3">
-        <v>14</v>
-      </c>
-      <c r="G40" s="5" t="s">
+      <c r="F40" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" s="5">
+        <v>75</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
       <c r="I40">
         <v>1</v>
       </c>
@@ -2852,32 +2977,35 @@
         <v>1</v>
       </c>
       <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
         <v>26.56505117707799</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>1.4581069019180892</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>13.425191952641399</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>36.033450111134322</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>56342.820663541235</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>42.203909629628058</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>64.599999999999994</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>53.279732414898682</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -2889,18 +3017,18 @@
       <c r="D41">
         <v>514.89534191800635</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F41" s="3">
-        <v>14</v>
-      </c>
-      <c r="G41" s="5" t="s">
+      <c r="F41" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G41" s="5">
+        <v>75</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
       <c r="I41">
         <v>1</v>
       </c>
@@ -2908,32 +3036,35 @@
         <v>1</v>
       </c>
       <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
         <v>12.994616791916506</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>1.2101767036735556</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>7.5508442594591969</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>35.88948215691137</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>65880.800354292514</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>33.539133965463705</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>64.799999999999997</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>66.003936258150404</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -2945,18 +3076,18 @@
       <c r="D42">
         <v>636.44722250730001</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F42" s="3">
-        <v>13</v>
-      </c>
-      <c r="G42" s="5" t="s">
+      <c r="F42" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G42" s="5">
+        <v>70</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
       <c r="I42">
         <v>1</v>
       </c>
@@ -2964,32 +3095,35 @@
         <v>1</v>
       </c>
       <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
         <v>-22.619864948040426</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>-1.6058829521262927</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>11.392583232894481</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>35.614076330263096</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>58925.77165012552</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>41.081968575941467</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>60.799999999999997</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>53.664543172674833</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -3001,18 +3135,18 @@
       <c r="D43">
         <v>355.682373046875</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F43" s="3">
-        <v>11</v>
-      </c>
-      <c r="G43" s="5" t="s">
+      <c r="F43" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" s="5">
+        <v>80</v>
+      </c>
+      <c r="H43" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
       <c r="I43">
         <v>1</v>
       </c>
@@ -3020,32 +3154,35 @@
         <v>1</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
         <v>6.7927217195817633</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>32.316125930348811</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>33981.322288513184</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>38.443408936584525</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>51.800000000000004</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>48.801771232575256</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -3057,51 +3194,54 @@
       <c r="D44">
         <v>498.52729828620187</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F44" s="3">
-        <v>15</v>
-      </c>
-      <c r="G44" s="5" t="s">
+      <c r="F44" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G44" s="5">
+        <v>77</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
         <v>-61.821409890040833</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>-5.0893180628193875</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>14.628779529778768</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>38.712289608588598</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>61368.389916384978</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>40.747734065912802</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>68</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>52.963440755654069</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -3113,18 +3253,18 @@
       <c r="D45">
         <v>440.73436245322114</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F45" s="3">
-        <v>12</v>
-      </c>
-      <c r="G45" s="5" t="s">
+      <c r="F45" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G45" s="5">
+        <v>77</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
       <c r="I45">
         <v>1</v>
       </c>
@@ -3132,32 +3272,35 @@
         <v>1</v>
       </c>
       <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
         <v>-39.805571092265197</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>-3.5585876035999666</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>3.4334511037174877</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>30.598407354654924</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>48675.498614311095</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>39.627790590445215</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>66.999998092651197</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>65.850615366860552</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -3169,18 +3312,18 @@
       <c r="D46">
         <v>163.95065026518785</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F46" s="3">
-        <v>12</v>
-      </c>
-      <c r="G46" s="5" t="s">
+      <c r="F46" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46" s="5">
+        <v>45</v>
+      </c>
+      <c r="H46" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
       <c r="I46">
         <v>1</v>
       </c>
@@ -3188,32 +3331,35 @@
         <v>1</v>
       </c>
       <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
         <v>-4.7636416907261774</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>-0.44761412083781354</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>4.4201844910080723</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>29.676946552576933</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>6766.6186451617768</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>6.6664850327135721</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>53.333340883254898</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>47.812523640286472</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -3225,18 +3371,18 @@
       <c r="D47">
         <v>446.010986328125</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F47" s="3">
-        <v>12</v>
-      </c>
-      <c r="G47" s="5" t="s">
+      <c r="F47" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="5">
+        <v>60</v>
+      </c>
+      <c r="H47" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
       <c r="I47">
         <v>1</v>
       </c>
@@ -3244,32 +3390,35 @@
         <v>1</v>
       </c>
       <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
         <v>19.98310652189998</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>1.2612800062814395</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>13.255062220218193</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>31.81162021881461</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>35146.41650390625</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>37.383023642325604</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>52</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>46.396112064454265</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -3281,18 +3430,18 @@
       <c r="D48">
         <v>410.2734375</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F48" s="3">
-        <v>15</v>
-      </c>
-      <c r="G48" s="5" t="s">
+      <c r="F48" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G48" s="5">
+        <v>66</v>
+      </c>
+      <c r="H48" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
       <c r="I48">
         <v>1</v>
       </c>
@@ -3300,32 +3449,35 @@
         <v>1</v>
       </c>
       <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
         <v>30.963756532073521</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>2.9814612199821919</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>13.834097630057428</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>34.316301644988521</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>47219.0625</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>40.851757563591349</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>54</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>51.197069989115242</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -3337,18 +3489,18 @@
       <c r="D49">
         <v>547.529296875</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="3">
-        <v>14</v>
-      </c>
-      <c r="G49" s="5" t="s">
+      <c r="F49" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G49" s="5">
+        <v>70</v>
+      </c>
+      <c r="H49" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
       <c r="I49">
         <v>1</v>
       </c>
@@ -3356,32 +3508,35 @@
         <v>1</v>
       </c>
       <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
         <v>-19.653824058053306</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>-1.9370247977515309</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>10.21825537473083</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>38.592780770486456</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>72201.6796875</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>40.013930685907681</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>69.299999999999997</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>62.046911887741167</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -3393,18 +3548,18 @@
       <c r="D50">
         <v>254.8114127675689</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F50" s="3">
-        <v>13</v>
-      </c>
-      <c r="G50" s="5" t="s">
+      <c r="F50" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G50" s="5">
+        <v>50</v>
+      </c>
+      <c r="H50" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
       <c r="I50">
         <v>1</v>
       </c>
@@ -3412,32 +3567,35 @@
         <v>1</v>
       </c>
       <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
         <v>-51.340191745909912</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>-3.5014560677459503</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>6.0344958441157104</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>31.564967317792206</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>42078.462777215362</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>38.340299766268089</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>60.799999999999997</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>51.013658365247359</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -3449,18 +3607,18 @@
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F51" s="3">
-        <v>14</v>
-      </c>
-      <c r="G51" s="5" t="s">
+      <c r="F51" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G51" s="5">
+        <v>50</v>
+      </c>
+      <c r="H51" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
       <c r="I51">
         <v>0</v>
       </c>
@@ -3468,29 +3626,32 @@
         <v>0</v>
       </c>
       <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
         <v>23.198590513648188</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>1.3700141783143978</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>5.8596188678971828</v>
       </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
       <c r="P51">
         <v>0</v>
       </c>
       <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
         <v>56</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>45.256270227425986</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -3502,18 +3663,18 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F52" s="3">
-        <v>14</v>
-      </c>
-      <c r="G52" s="5" t="s">
+      <c r="F52" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G52" s="5">
+        <v>70</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
       <c r="I52">
         <v>0</v>
       </c>
@@ -3521,29 +3682,32 @@
         <v>0</v>
       </c>
       <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
         <v>-19.98310652189998</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>-1.9722158658338196</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>8.657089618331014</v>
       </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
       <c r="P52">
         <v>0</v>
       </c>
       <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
         <v>66</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>54.97311150957421</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -3555,18 +3719,18 @@
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F53" s="3">
-        <v>11</v>
-      </c>
-      <c r="G53" s="5" t="s">
+      <c r="F53" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G53" s="5">
+        <v>60</v>
+      </c>
+      <c r="H53" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
       <c r="I53">
         <v>0</v>
       </c>
@@ -3574,29 +3738,32 @@
         <v>0</v>
       </c>
       <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
         <v>18.43494882292201</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>1.7133619866607177</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>1.5900073628028082</v>
       </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
       <c r="P53">
         <v>0</v>
       </c>
       <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
         <v>55.500000715255652</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>42.549347625429448</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -3608,18 +3775,18 @@
       <c r="D54">
         <v>0</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F54" s="3">
-        <v>14</v>
-      </c>
-      <c r="G54" s="5" t="s">
+      <c r="F54" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G54" s="5">
+        <v>66</v>
+      </c>
+      <c r="H54" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
       <c r="I54">
         <v>0</v>
       </c>
@@ -3627,29 +3794,32 @@
         <v>0</v>
       </c>
       <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
         <v>-30.256437163529274</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>-2.6448851568481899</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>15.062583353136773</v>
       </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
       <c r="P54">
         <v>0</v>
       </c>
       <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
         <v>53.199999999999996</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>45.694312049256439</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -3661,18 +3831,18 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F55" s="3">
-        <v>14</v>
-      </c>
-      <c r="G55" s="5" t="s">
+      <c r="F55" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G55" s="5">
+        <v>88</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
       <c r="I55">
         <v>0</v>
       </c>
@@ -3680,29 +3850,32 @@
         <v>0</v>
       </c>
       <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
         <v>-49.763641690726182</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>-3.7731740894809018</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>2.0454720681752434</v>
       </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
       <c r="P55">
         <v>0</v>
       </c>
       <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
         <v>59.5</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>47.86303019369911</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -3714,18 +3887,18 @@
       <c r="D56">
         <v>386.92474365234375</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F56" s="3">
-        <v>14</v>
-      </c>
-      <c r="G56" s="5" t="s">
+      <c r="F56" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G56" s="5">
+        <v>88</v>
+      </c>
+      <c r="H56" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
       <c r="I56">
         <v>1</v>
       </c>
@@ -3733,32 +3906,35 @@
         <v>1</v>
       </c>
       <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
         <v>40.601294645004472</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>2.7384635391469172</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>4.0732567944798177</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>34.193709197978059</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>54681.09130859375</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>37.685320141925416</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>70</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>65.805868943063146</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -3770,18 +3946,18 @@
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F57" s="3">
-        <v>17</v>
-      </c>
-      <c r="G57" s="5" t="s">
+      <c r="F57" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G57" s="5">
+        <v>85</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
       <c r="I57">
         <v>0</v>
       </c>
@@ -3789,29 +3965,32 @@
         <v>0</v>
       </c>
       <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
         <v>-26.56505117707799</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>-1.9176690854067964</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>5.6916307349100492</v>
       </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
       <c r="P57">
         <v>0</v>
       </c>
       <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
         <v>66.5</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>48.137986499947992</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -3823,18 +4002,18 @@
       <c r="D58">
         <v>199.25390625</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F58" s="3">
-        <v>11</v>
-      </c>
-      <c r="G58" s="5" t="s">
+      <c r="F58" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G58" s="5">
+        <v>90</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
       <c r="I58">
         <v>1</v>
       </c>
@@ -3842,32 +4021,35 @@
         <v>1</v>
       </c>
       <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
         <v>45</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>4.1704365248421116</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>0.040437830261367935</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>22.252243193069312</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>19243.3623046875</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>37.296440048412002</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>54</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <v>35.212820146431874</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -3879,18 +4061,18 @@
       <c r="D59">
         <v>418.04085370226494</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F59" s="3">
-        <v>11</v>
-      </c>
-      <c r="G59" s="5" t="s">
+      <c r="F59" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G59" s="5">
+        <v>44</v>
+      </c>
+      <c r="H59" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
       <c r="I59">
         <v>1</v>
       </c>
@@ -3898,32 +4080,35 @@
         <v>1</v>
       </c>
       <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
         <v>8.7461622625552096</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>0.83943857123274734</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>12.297167513622639</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>31.131882001630011</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>44891.269319711413</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <v>40.963333094965684</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>63</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>53.81155533680657</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -3935,18 +4120,18 @@
       <c r="D60">
         <v>387.3046875</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F60" s="3">
-        <v>13</v>
-      </c>
-      <c r="G60" s="5" t="s">
+      <c r="F60" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G60" s="5">
+        <v>50</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
       <c r="I60">
         <v>1</v>
       </c>
@@ -3954,32 +4139,35 @@
         <v>1</v>
       </c>
       <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
         <v>-15.945395900922856</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>-1.7047283190072675</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>2.9612376817325128</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>29.087541602662572</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>36582.12890625</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <v>38.592082977907999</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>60</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <v>45.42378542013919</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -3991,18 +4179,18 @@
       <c r="D61">
         <v>22.39453125</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F61" s="3">
-        <v>14</v>
-      </c>
-      <c r="G61" s="5" t="s">
+      <c r="F61" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G61" s="5">
+        <v>50</v>
+      </c>
+      <c r="H61" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
       <c r="I61">
         <v>1</v>
       </c>
@@ -4010,32 +4198,35 @@
         <v>1</v>
       </c>
       <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
         <v>28.610459665965216</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>1.8983129351884886</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>3.4186107023880652</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>29.521804835924005</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>35050.714453125001</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>34.885144379635626</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>64.799999999999997</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>46.290699129350536</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -4047,18 +4238,18 @@
       <c r="D62">
         <v>88.687660430715155</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F62" s="3">
-        <v>10</v>
-      </c>
-      <c r="G62" s="5" t="s">
+      <c r="F62" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G62" s="5">
+        <v>60</v>
+      </c>
+      <c r="H62" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
       <c r="I62">
         <v>1</v>
       </c>
@@ -4066,32 +4257,35 @@
         <v>1</v>
       </c>
       <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
         <v>11.309932474020213</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>0.8060562819368865</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>11.658325572075086</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>24.627301431639161</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>9891.8567095712951</v>
       </c>
-      <c r="P62">
+      <c r="Q62">
         <v>11.411689258981852</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>59.5</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <v>39.270410171160016</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -4103,18 +4297,18 @@
       <c r="D63">
         <v>407.6255751977356</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F63" s="3">
-        <v>13</v>
-      </c>
-      <c r="G63" s="5" t="s">
+      <c r="F63" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G63" s="5">
+        <v>77</v>
+      </c>
+      <c r="H63" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
       <c r="I63">
         <v>1</v>
       </c>
@@ -4122,32 +4316,35 @@
         <v>1</v>
       </c>
       <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
         <v>-66.571307191254604</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>-6.193679380615194</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>8.9076407035120582</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>34.12465367702093</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>51393.234369609228</v>
       </c>
-      <c r="P63">
+      <c r="Q63">
         <v>38.27001880253961</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>72</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <v>49.216064160150665</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -4159,18 +4356,18 @@
       <c r="D64">
         <v>336.47013877059555</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F64" s="3">
-        <v>13</v>
-      </c>
-      <c r="G64" s="5" t="s">
+      <c r="F64" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G64" s="5">
+        <v>75</v>
+      </c>
+      <c r="H64" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
       <c r="I64">
         <v>1</v>
       </c>
@@ -4178,32 +4375,35 @@
         <v>1</v>
       </c>
       <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
         <v>-26.56505117707799</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>-1.4581069019180894</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>8.8798507697765388</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>32.998100696930329</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>49508.750930337628</v>
       </c>
-      <c r="P64">
+      <c r="Q64">
         <v>37.30028628489633</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>72.200000000000003</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <v>57.556738209140086</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -4215,51 +4415,54 @@
       <c r="D65">
         <v>0</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F65" s="3">
-        <v>10</v>
-      </c>
-      <c r="G65" s="5" t="s">
+      <c r="F65" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G65" s="5">
+        <v>35</v>
+      </c>
+      <c r="H65" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
         <v>4.3987053549955322</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>0.45909097219195694</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>5.8813647857466833</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>24.304716542750924</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>5160.05859375</v>
       </c>
-      <c r="P65">
+      <c r="Q65">
         <v>5.8115670410600924</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>57</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <v>37.75007272255867</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -4271,18 +4474,18 @@
       <c r="D66">
         <v>299.07410259599158</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F66" s="3">
-        <v>12</v>
-      </c>
-      <c r="G66" s="5" t="s">
+      <c r="F66" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G66" s="5">
+        <v>55</v>
+      </c>
+      <c r="H66" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
       <c r="I66">
         <v>1</v>
       </c>
@@ -4290,32 +4493,35 @@
         <v>1</v>
       </c>
       <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
         <v>-21.801409486351812</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>-2.1210964977107944</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>3.3693069209865314</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>29.951332069176082</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>33385.651332050686</v>
       </c>
-      <c r="P66">
+      <c r="Q66">
         <v>39.834063861108582</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>54</v>
       </c>
-      <c r="R66">
+      <c r="S66">
         <v>42.970093860960354</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -4327,18 +4533,18 @@
       <c r="D67">
         <v>648.33984375</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F67" s="3">
-        <v>12</v>
-      </c>
-      <c r="G67" s="5" t="s">
+      <c r="F67" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G67" s="5">
+        <v>36</v>
+      </c>
+      <c r="H67" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
       <c r="I67">
         <v>1</v>
       </c>
@@ -4346,32 +4552,35 @@
         <v>1</v>
       </c>
       <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
         <v>16.389540334034784</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>1.7548364850606371</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>12.553718107366876</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>30.235248541565383</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>36638.0859375</v>
       </c>
-      <c r="P67">
+      <c r="Q67">
         <v>40.357042587590641</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>60</v>
       </c>
-      <c r="R67">
+      <c r="S67">
         <v>43.718925081001238</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -4383,18 +4592,18 @@
       <c r="D68">
         <v>0</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F68" s="3">
-        <v>11</v>
-      </c>
-      <c r="G68" s="5" t="s">
+      <c r="F68" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G68" s="5">
+        <v>66</v>
+      </c>
+      <c r="H68" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
       <c r="I68">
         <v>0</v>
       </c>
@@ -4402,29 +4611,32 @@
         <v>0</v>
       </c>
       <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
         <v>30.256437163529274</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>2.4926455485702101</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>7.5035133654112514</v>
       </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
         <v>60.299998283386081</v>
       </c>
-      <c r="R68">
+      <c r="S68">
         <v>43.830594815742664</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -4436,18 +4648,18 @@
       <c r="D69">
         <v>448.6009161884806</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F69" s="3">
-        <v>12</v>
-      </c>
-      <c r="G69" s="5" t="s">
+      <c r="F69" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G69" s="5">
+        <v>80</v>
+      </c>
+      <c r="H69" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
       <c r="I69">
         <v>1</v>
       </c>
@@ -4455,32 +4667,35 @@
         <v>1</v>
       </c>
       <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
         <v>15.255118703057775</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>0.9687892076799931</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>3.9965749305537628</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>31.824206445731463</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>42411.88933773787</v>
       </c>
-      <c r="P69">
+      <c r="Q69">
         <v>38.192143871273068</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <v>61.200000000000003</v>
       </c>
-      <c r="R69">
+      <c r="S69">
         <v>46.689964143301246</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -4492,18 +4707,18 @@
       <c r="D70">
         <v>429.34545686424428</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F70" s="3">
-        <v>10</v>
-      </c>
-      <c r="G70" s="5" t="s">
+      <c r="F70" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G70" s="5">
+        <v>40</v>
+      </c>
+      <c r="H70" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
       <c r="I70">
         <v>1</v>
       </c>
@@ -4511,32 +4726,35 @@
         <v>1</v>
       </c>
       <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
         <v>-11.309932474020213</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>-0.95484122135648042</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>1.858732429825821</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>23.599858351122421</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>24047.216243856234</v>
       </c>
-      <c r="P70">
+      <c r="Q70">
         <v>40.159813832299896</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <v>52.5</v>
       </c>
-      <c r="R70">
+      <c r="S70">
         <v>35.015920069230297</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -4548,18 +4766,18 @@
       <c r="D71">
         <v>743.7499209398876</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F71" s="3">
-        <v>10</v>
-      </c>
-      <c r="G71" s="5" t="s">
+      <c r="F71" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G71" s="5">
+        <v>55</v>
+      </c>
+      <c r="H71" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
       <c r="I71">
         <v>1</v>
       </c>
@@ -4567,32 +4785,35 @@
         <v>1</v>
       </c>
       <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
         <v>-63.43494882292201</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>-5.7001393761755947</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>11.689339909029627</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>29.920252664506133</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>33663.547100128897</v>
       </c>
-      <c r="P71">
+      <c r="Q71">
         <v>41.131846854901859</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <v>59.200000000000003</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <v>46.217359167540053</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -4604,18 +4825,18 @@
       <c r="D72">
         <v>453.30616297767568</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F72" s="3">
-        <v>10</v>
-      </c>
-      <c r="G72" s="5" t="s">
+      <c r="F72" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G72" s="5">
+        <v>35</v>
+      </c>
+      <c r="H72" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
       <c r="I72">
         <v>1</v>
       </c>
@@ -4623,32 +4844,35 @@
         <v>1</v>
       </c>
       <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
         <v>-39.289406862500357</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>-4.4556030317050892</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>11.591863561066404</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>30.425548966882605</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>27748.410644164516</v>
       </c>
-      <c r="P72">
+      <c r="Q72">
         <v>38.945335056507275</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <v>54</v>
       </c>
-      <c r="R72">
+      <c r="S72">
         <v>41.814136752962732</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -4660,18 +4884,18 @@
       <c r="D73">
         <v>709.01310384819135</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F73" s="3">
-        <v>12</v>
-      </c>
-      <c r="G73" s="5" t="s">
+      <c r="F73" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G73" s="5">
+        <v>55</v>
+      </c>
+      <c r="H73" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
       <c r="I73">
         <v>1</v>
       </c>
@@ -4679,32 +4903,35 @@
         <v>1</v>
       </c>
       <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
         <v>41.185925165709655</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>2.7688439225122354</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>18.912007027921092</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>31.15650946105125</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>49449.636254090576</v>
       </c>
-      <c r="P73">
+      <c r="Q73">
         <v>41.402295119361995</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <v>70</v>
       </c>
-      <c r="R73">
+      <c r="S73">
         <v>47.805637797847318</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -4716,18 +4943,18 @@
       <c r="D74">
         <v>387.18003077027936</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F74" s="3">
-        <v>10</v>
-      </c>
-      <c r="G74" s="5" t="s">
+      <c r="F74" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G74" s="5">
+        <v>25</v>
+      </c>
+      <c r="H74" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
       <c r="I74">
         <v>1</v>
       </c>
@@ -4735,32 +4962,35 @@
         <v>1</v>
       </c>
       <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
         <v>31.607502246248906</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>3.5214535164999989</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>3.0214003686829187</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>25.827703951045248</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>26272.62208795872</v>
       </c>
-      <c r="P74">
+      <c r="Q74">
         <v>35.530385186970321</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <v>54</v>
       </c>
-      <c r="R74">
+      <c r="S74">
         <v>35.167623555490465</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -4772,18 +5002,18 @@
       <c r="D75">
         <v>303.7504873127574</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F75" s="3">
-        <v>11</v>
-      </c>
-      <c r="G75" s="5" t="s">
+      <c r="F75" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G75" s="5">
+        <v>70</v>
+      </c>
+      <c r="H75" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
       <c r="I75">
         <v>1</v>
       </c>
@@ -4791,32 +5021,35 @@
         <v>1</v>
       </c>
       <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
         <v>42.273689006093733</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>2.876543164712301</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>14.36540540285857</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>29.354522180068933</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>29427.383886209849</v>
       </c>
-      <c r="P75">
+      <c r="Q75">
         <v>35.582434395059806</v>
       </c>
-      <c r="Q75">
+      <c r="R75">
         <v>52.5</v>
       </c>
-      <c r="R75">
+      <c r="S75">
         <v>40.746626090370199</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -4828,18 +5061,18 @@
       <c r="D76">
         <v>448.39731889195269</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F76" s="3">
-        <v>10</v>
-      </c>
-      <c r="G76" s="5" t="s">
+      <c r="F76" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G76" s="5">
+        <v>60</v>
+      </c>
+      <c r="H76" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
       <c r="I76">
         <v>1</v>
       </c>
@@ -4847,32 +5080,35 @@
         <v>1</v>
       </c>
       <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
         <v>38.659808254090095</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>2.6062023207980083</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>14.092359307007598</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>30.751157570392103</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>43174.528792617806</v>
       </c>
-      <c r="P76">
+      <c r="Q76">
         <v>39.444405049341405</v>
       </c>
-      <c r="Q76">
+      <c r="R76">
         <v>61.199999999999996</v>
       </c>
-      <c r="R76">
+      <c r="S76">
         <v>46.522633443539299</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -4884,18 +5120,18 @@
       <c r="D77">
         <v>285.42228111161194</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F77" s="3">
-        <v>11</v>
-      </c>
-      <c r="G77" s="5" t="s">
+      <c r="F77" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G77" s="5">
+        <v>45</v>
+      </c>
+      <c r="H77" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
       <c r="I77">
         <v>1</v>
       </c>
@@ -4903,32 +5139,35 @@
         <v>1</v>
       </c>
       <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
         <v>-15.255118703057775</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>-1.502167248037517</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>8.8286103895133579</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>29.374564901339475</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>27675.946450945248</v>
       </c>
-      <c r="P77">
+      <c r="Q77">
         <v>29.068055117282</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <v>55.466674804687358</v>
       </c>
-      <c r="R77">
+      <c r="S77">
         <v>45.176982648781767</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -4940,18 +5179,18 @@
       <c r="D78">
         <v>316.96319580078125</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F78" s="3">
-        <v>10</v>
-      </c>
-      <c r="G78" s="5" t="s">
+      <c r="F78" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G78" s="5">
+        <v>55</v>
+      </c>
+      <c r="H78" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
       <c r="I78">
         <v>1</v>
       </c>
@@ -4959,32 +5198,35 @@
         <v>1</v>
       </c>
       <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
         <v>50.19442890773481</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>3.8310513610566912</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>2.5275775907735465</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>28.053465006112464</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <v>28673.019409179688</v>
       </c>
-      <c r="P78">
+      <c r="Q78">
         <v>35.072339271920214</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <v>52.5</v>
       </c>
-      <c r="R78">
+      <c r="S78">
         <v>52.021966697853337</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -4996,18 +5238,18 @@
       <c r="D79">
         <v>790.37189483642578</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F79" s="3">
-        <v>12</v>
-      </c>
-      <c r="G79" s="5" t="s">
+      <c r="F79" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G79" s="5">
+        <v>55</v>
+      </c>
+      <c r="H79" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
       <c r="I79">
         <v>1</v>
       </c>
@@ -5015,32 +5257,35 @@
         <v>1</v>
       </c>
       <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
         <v>46.974934010881981</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>5.124821750944502</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>6.8306530601418274</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>35.717843391833817</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <v>52218.618392944336</v>
       </c>
-      <c r="P79">
+      <c r="Q79">
         <v>39.969555939810895</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <v>73.5</v>
       </c>
-      <c r="R79">
+      <c r="S79">
         <v>50.22298675856085</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -5052,18 +5297,18 @@
       <c r="D80">
         <v>506.33336351314989</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F80" s="3">
-        <v>10</v>
-      </c>
-      <c r="G80" s="5" t="s">
+      <c r="F80" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G80" s="5">
+        <v>50</v>
+      </c>
+      <c r="H80" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
       <c r="I80">
         <v>1</v>
       </c>
@@ -5071,32 +5316,35 @@
         <v>1</v>
       </c>
       <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
         <v>-9.4623222080256166</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>-1.0609117218746313</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>4.307587251716285</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>26.432445855536873</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <v>17247.001028001243</v>
       </c>
-      <c r="P80">
+      <c r="Q80">
         <v>18.566522773513611</v>
       </c>
-      <c r="Q80">
+      <c r="R80">
         <v>54</v>
       </c>
-      <c r="R80">
+      <c r="S80">
         <v>47.051826055220204</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -5108,18 +5356,18 @@
       <c r="D81">
         <v>0</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F81" s="3">
-        <v>17</v>
-      </c>
-      <c r="G81" s="5" t="s">
+      <c r="F81" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G81" s="5">
+        <v>80</v>
+      </c>
+      <c r="H81" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
       <c r="I81">
         <v>0</v>
       </c>
@@ -5127,24 +5375,27 @@
         <v>0</v>
       </c>
       <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
         <v>66.250505507133255</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>7.7571334335314939</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>2.5773253300731653</v>
       </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
       <c r="P81">
         <v>0</v>
       </c>
       <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
         <v>61.200000000000003</v>
       </c>
-      <c r="R81">
+      <c r="S81">
         <v>54.939669046978359</v>
       </c>
     </row>
